--- a/Data/F022.CDO6.PRE.Z.Z.CLP.D.xlsx
+++ b/Data/F022.CDO6.PRE.Z.Z.CLP.D.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">

--- a/Data/F022.CDO6.PRE.Z.Z.CLP.D.xlsx
+++ b/Data/F022.CDO6.PRE.Z.Z.CLP.D.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
